--- a/data/trans_dic/P56$familiarvive-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07496721205181821</v>
+        <v>0.0740432124293004</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04905726318075878</v>
+        <v>0.04827021678495554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04622377026112914</v>
+        <v>0.04680053990976489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1319031902568434</v>
+        <v>0.1282656378834834</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04015000579945311</v>
+        <v>0.04072566360609765</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1222702151873515</v>
+        <v>0.1094563515714167</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1276233618319629</v>
+        <v>0.1373971824624323</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1430055066145908</v>
+        <v>0.14889860653867</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06464537662149444</v>
+        <v>0.07564665832751549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1202825125336366</v>
+        <v>0.1202940403783138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1287719404962373</v>
+        <v>0.1322181880238114</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1655444638083511</v>
+        <v>0.1626340893326748</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5291486912166</v>
+        <v>0.5277282139228995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4039710970849861</v>
+        <v>0.4020093145761717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3851810142489549</v>
+        <v>0.4175989766839195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3824566334255572</v>
+        <v>0.4017996274315599</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3432995113324376</v>
+        <v>0.3360949593706293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.385178457050037</v>
+        <v>0.3799083988218815</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4140857683595835</v>
+        <v>0.420684122389268</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2996289069002717</v>
+        <v>0.3100923777050456</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3321615221469135</v>
+        <v>0.3341381693564138</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3370986732237363</v>
+        <v>0.3330190873211192</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3515899139973754</v>
+        <v>0.3551824327325723</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3032849469812605</v>
+        <v>0.3105925878813637</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1572411069531364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08496592505245498</v>
+        <v>0.08496592505245495</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4941674181086592</v>
@@ -821,7 +821,7 @@
         <v>0.2727193895906115</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2146746720465803</v>
+        <v>0.2146746720465804</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3902475465667324</v>
@@ -833,7 +833,7 @@
         <v>0.2402905411886659</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1803899700894604</v>
+        <v>0.1803899700894603</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08254499789492814</v>
+        <v>0.07822770793951705</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1108055779827402</v>
+        <v>0.09936297128002361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07925817264406451</v>
+        <v>0.07767986758944725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04386344207193595</v>
+        <v>0.04485108036074534</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3696990478268745</v>
+        <v>0.3712094760567726</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2226012981481001</v>
+        <v>0.2242807552496131</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1932272167523586</v>
+        <v>0.1864790492782282</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1711817414228206</v>
+        <v>0.1756151334442401</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2965915981642619</v>
+        <v>0.2880055108181611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2133589030240874</v>
+        <v>0.2071553855469536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1773508480840318</v>
+        <v>0.1762542666349747</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1468972256152877</v>
+        <v>0.1464076547739807</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3345357977331316</v>
+        <v>0.3346275516458643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3477524540604816</v>
+        <v>0.3517548868743313</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2731414948361106</v>
+        <v>0.2561879929152538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1469165013837802</v>
+        <v>0.1463527396601793</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6183657999956303</v>
+        <v>0.6166801894535816</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3709160558658912</v>
+        <v>0.3798994576463685</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3753519249255352</v>
+        <v>0.3651126945562003</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2594491382942737</v>
+        <v>0.2616831750850483</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4881578513431035</v>
+        <v>0.4903502556202358</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3417554622054228</v>
+        <v>0.3354342609273834</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3115276986625348</v>
+        <v>0.3110362153278183</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2189952350149104</v>
+        <v>0.2152681863629305</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.22255263345774</v>
+        <v>0.2216274178866032</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.178320164640191</v>
+        <v>0.1783239936223067</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2096272009342411</v>
+        <v>0.1994443833652634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1602787391689296</v>
+        <v>0.1623958438889028</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3503392074315798</v>
+        <v>0.3512356194337084</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2540310172867332</v>
+        <v>0.2547204701340161</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3225555577086267</v>
+        <v>0.3167780401586638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2272286635536672</v>
+        <v>0.2253268662920381</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4087</v>
+        <v>3974</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5152</v>
+        <v>4612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5256</v>
+        <v>5658</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8503</v>
+        <v>8854</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2258</v>
+        <v>2643</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>7646</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8020</v>
+        <v>8235</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14973</v>
+        <v>14709</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6807</v>
+        <v>6789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8657</v>
+        <v>8615</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8127</v>
+        <v>8811</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11849</v>
+        <v>12449</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7576</v>
+        <v>7417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16229</v>
+        <v>16007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17053</v>
+        <v>17325</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17817</v>
+        <v>18439</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11604</v>
+        <v>11673</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21427</v>
+        <v>21168</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21897</v>
+        <v>22121</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27430</v>
+        <v>28091</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2923</v>
+        <v>2771</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6324</v>
+        <v>5671</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4042</v>
+        <v>3962</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3404</v>
+        <v>3480</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26425</v>
+        <v>26533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36308</v>
+        <v>36582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25237</v>
+        <v>24355</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>36970</v>
+        <v>37927</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31703</v>
+        <v>30785</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>46979</v>
+        <v>45613</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32208</v>
+        <v>32009</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43123</v>
+        <v>42980</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11848</v>
+        <v>11851</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19848</v>
+        <v>20077</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13930</v>
+        <v>13065</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11400</v>
+        <v>11356</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44198</v>
+        <v>44078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60500</v>
+        <v>61965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49023</v>
+        <v>47686</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56032</v>
+        <v>56515</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>52180</v>
+        <v>52414</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>75250</v>
+        <v>73858</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>56575</v>
+        <v>56486</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>64288</v>
+        <v>63194</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>45678</v>
+        <v>45488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49115</v>
+        <v>49116</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>59482</v>
+        <v>56592</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61548</v>
+        <v>62361</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71905</v>
+        <v>72089</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69968</v>
+        <v>70157</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>91525</v>
+        <v>89886</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>87257</v>
+        <v>86527</v>
       </c>
     </row>
     <row r="16">
